--- a/BANA/Problem 2/grocery.xlsx
+++ b/BANA/Problem 2/grocery.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNQH\BANA\Problem 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNQH\BANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF1C3AF-676C-492A-98BB-729E44F1F9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A01D15-3209-42CB-9F8A-102454CFAA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t>shipped</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -38,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,12 +71,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,35 +399,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>4264</v>
-      </c>
-      <c r="B1">
-        <v>305657</v>
-      </c>
-      <c r="C1">
-        <v>7.17</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4496</v>
+        <v>4264</v>
       </c>
       <c r="B2">
-        <v>328476</v>
+        <v>305657</v>
       </c>
       <c r="C2">
-        <v>6.2</v>
+        <v>7.17</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -392,13 +437,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4317</v>
+        <v>4496</v>
       </c>
       <c r="B3">
-        <v>317164</v>
+        <v>328476</v>
       </c>
       <c r="C3">
-        <v>4.6100000000000003</v>
+        <v>6.2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -406,13 +451,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4292</v>
+        <v>4317</v>
       </c>
       <c r="B4">
-        <v>366745</v>
+        <v>317164</v>
       </c>
       <c r="C4">
-        <v>7.02</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -420,41 +465,41 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4945</v>
+        <v>4292</v>
       </c>
       <c r="B5">
-        <v>265518</v>
+        <v>366745</v>
       </c>
       <c r="C5">
-        <v>8.61</v>
+        <v>7.02</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4325</v>
+        <v>4945</v>
       </c>
       <c r="B6">
-        <v>301995</v>
+        <v>265518</v>
       </c>
       <c r="C6">
-        <v>6.88</v>
+        <v>8.61</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4110</v>
+        <v>4325</v>
       </c>
       <c r="B7">
-        <v>269334</v>
+        <v>301995</v>
       </c>
       <c r="C7">
-        <v>7.23</v>
+        <v>6.88</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -462,13 +507,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="B8">
-        <v>267631</v>
+        <v>269334</v>
       </c>
       <c r="C8">
-        <v>6.27</v>
+        <v>7.23</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -476,13 +521,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4161</v>
+        <v>4111</v>
       </c>
       <c r="B9">
-        <v>296350</v>
+        <v>267631</v>
       </c>
       <c r="C9">
-        <v>6.49</v>
+        <v>6.27</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -490,13 +535,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4560</v>
+        <v>4161</v>
       </c>
       <c r="B10">
-        <v>277223</v>
+        <v>296350</v>
       </c>
       <c r="C10">
-        <v>6.37</v>
+        <v>6.49</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -504,13 +549,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4401</v>
+        <v>4560</v>
       </c>
       <c r="B11">
-        <v>269189</v>
+        <v>277223</v>
       </c>
       <c r="C11">
-        <v>7.05</v>
+        <v>6.37</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -518,13 +563,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4251</v>
+        <v>4401</v>
       </c>
       <c r="B12">
-        <v>277133</v>
+        <v>269189</v>
       </c>
       <c r="C12">
-        <v>6.34</v>
+        <v>7.05</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -532,13 +577,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4222</v>
+        <v>4251</v>
       </c>
       <c r="B13">
-        <v>282892</v>
+        <v>277133</v>
       </c>
       <c r="C13">
-        <v>6.94</v>
+        <v>6.34</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -546,13 +591,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4063</v>
+        <v>4222</v>
       </c>
       <c r="B14">
-        <v>306639</v>
+        <v>282892</v>
       </c>
       <c r="C14">
-        <v>8.56</v>
+        <v>6.94</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -560,13 +605,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>4343</v>
+        <v>4063</v>
       </c>
       <c r="B15">
-        <v>328405</v>
+        <v>306639</v>
       </c>
       <c r="C15">
-        <v>6.71</v>
+        <v>8.56</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -574,41 +619,41 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4833</v>
+        <v>4343</v>
       </c>
       <c r="B16">
-        <v>321773</v>
+        <v>328405</v>
       </c>
       <c r="C16">
-        <v>5.82</v>
+        <v>6.71</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4453</v>
+        <v>4833</v>
       </c>
       <c r="B17">
-        <v>272319</v>
+        <v>321773</v>
       </c>
       <c r="C17">
-        <v>6.82</v>
+        <v>5.82</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4195</v>
+        <v>4453</v>
       </c>
       <c r="B18">
-        <v>293880</v>
+        <v>272319</v>
       </c>
       <c r="C18">
-        <v>8.3800000000000008</v>
+        <v>6.82</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -616,13 +661,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4394</v>
+        <v>4195</v>
       </c>
       <c r="B19">
-        <v>300867</v>
+        <v>293880</v>
       </c>
       <c r="C19">
-        <v>7.72</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -630,13 +675,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4099</v>
+        <v>4394</v>
       </c>
       <c r="B20">
-        <v>296872</v>
+        <v>300867</v>
       </c>
       <c r="C20">
-        <v>7.67</v>
+        <v>7.72</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -644,27 +689,27 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>4816</v>
+        <v>4099</v>
       </c>
       <c r="B21">
-        <v>245674</v>
+        <v>296872</v>
       </c>
       <c r="C21">
-        <v>7.72</v>
+        <v>7.67</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>4867</v>
+        <v>4816</v>
       </c>
       <c r="B22">
-        <v>211944</v>
+        <v>245674</v>
       </c>
       <c r="C22">
-        <v>6.45</v>
+        <v>7.72</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -672,27 +717,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>4114</v>
+        <v>4867</v>
       </c>
       <c r="B23">
-        <v>227996</v>
+        <v>211944</v>
       </c>
       <c r="C23">
-        <v>7.22</v>
+        <v>6.45</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4314</v>
+        <v>4114</v>
       </c>
       <c r="B24">
-        <v>248328</v>
+        <v>227996</v>
       </c>
       <c r="C24">
-        <v>8.5</v>
+        <v>7.22</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -700,13 +745,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4289</v>
+        <v>4314</v>
       </c>
       <c r="B25">
-        <v>249894</v>
+        <v>248328</v>
       </c>
       <c r="C25">
-        <v>8.08</v>
+        <v>8.5</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -714,13 +759,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4269</v>
+        <v>4289</v>
       </c>
       <c r="B26">
-        <v>302660</v>
+        <v>249894</v>
       </c>
       <c r="C26">
-        <v>7.26</v>
+        <v>8.08</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -728,13 +773,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4347</v>
+        <v>4269</v>
       </c>
       <c r="B27">
-        <v>273848</v>
+        <v>302660</v>
       </c>
       <c r="C27">
-        <v>7.39</v>
+        <v>7.26</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -742,13 +787,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4178</v>
+        <v>4347</v>
       </c>
       <c r="B28">
-        <v>245743</v>
+        <v>273848</v>
       </c>
       <c r="C28">
-        <v>8.1199999999999992</v>
+        <v>7.39</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -756,13 +801,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>4333</v>
+        <v>4178</v>
       </c>
       <c r="B29">
-        <v>267673</v>
+        <v>245743</v>
       </c>
       <c r="C29">
-        <v>6.75</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -770,13 +815,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4226</v>
+        <v>4333</v>
       </c>
       <c r="B30">
-        <v>256506</v>
+        <v>267673</v>
       </c>
       <c r="C30">
-        <v>7.79</v>
+        <v>6.75</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -784,13 +829,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4121</v>
+        <v>4226</v>
       </c>
       <c r="B31">
-        <v>271854</v>
+        <v>256506</v>
       </c>
       <c r="C31">
-        <v>7.89</v>
+        <v>7.79</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -798,13 +843,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3998</v>
+        <v>4121</v>
       </c>
       <c r="B32">
-        <v>293225</v>
+        <v>271854</v>
       </c>
       <c r="C32">
-        <v>9.01</v>
+        <v>7.89</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -812,13 +857,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>4475</v>
+        <v>3998</v>
       </c>
       <c r="B33">
-        <v>269121</v>
+        <v>293225</v>
       </c>
       <c r="C33">
-        <v>8.01</v>
+        <v>9.01</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -826,13 +871,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>4545</v>
+        <v>4475</v>
       </c>
       <c r="B34">
-        <v>322812</v>
+        <v>269121</v>
       </c>
       <c r="C34">
-        <v>7.21</v>
+        <v>8.01</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -840,13 +885,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4016</v>
+        <v>4545</v>
       </c>
       <c r="B35">
-        <v>252225</v>
+        <v>322812</v>
       </c>
       <c r="C35">
-        <v>7.85</v>
+        <v>7.21</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -854,13 +899,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4207</v>
+        <v>4016</v>
       </c>
       <c r="B36">
-        <v>261365</v>
+        <v>252225</v>
       </c>
       <c r="C36">
-        <v>6.14</v>
+        <v>7.85</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -868,13 +913,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4148</v>
+        <v>4207</v>
       </c>
       <c r="B37">
-        <v>287645</v>
+        <v>261365</v>
       </c>
       <c r="C37">
-        <v>6.76</v>
+        <v>6.14</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -882,13 +927,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>4562</v>
+        <v>4148</v>
       </c>
       <c r="B38">
-        <v>289666</v>
+        <v>287645</v>
       </c>
       <c r="C38">
-        <v>7.92</v>
+        <v>6.76</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -896,13 +941,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4146</v>
+        <v>4562</v>
       </c>
       <c r="B39">
-        <v>270051</v>
+        <v>289666</v>
       </c>
       <c r="C39">
-        <v>8.19</v>
+        <v>7.92</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -910,13 +955,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4555</v>
+        <v>4146</v>
       </c>
       <c r="B40">
-        <v>265239</v>
+        <v>270051</v>
       </c>
       <c r="C40">
-        <v>7.55</v>
+        <v>8.19</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -924,13 +969,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4365</v>
+        <v>4555</v>
       </c>
       <c r="B41">
-        <v>352466</v>
+        <v>265239</v>
       </c>
       <c r="C41">
-        <v>6.94</v>
+        <v>7.55</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -938,13 +983,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4471</v>
+        <v>4365</v>
       </c>
       <c r="B42">
-        <v>426908</v>
+        <v>352466</v>
       </c>
       <c r="C42">
-        <v>7.25</v>
+        <v>6.94</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -952,41 +997,41 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5045</v>
+        <v>4471</v>
       </c>
       <c r="B43">
-        <v>369989</v>
+        <v>426908</v>
       </c>
       <c r="C43">
-        <v>9.65</v>
+        <v>7.25</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4469</v>
+        <v>5045</v>
       </c>
       <c r="B44">
-        <v>472476</v>
+        <v>369989</v>
       </c>
       <c r="C44">
-        <v>8.1999999999999993</v>
+        <v>9.65</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4408</v>
+        <v>4469</v>
       </c>
       <c r="B45">
-        <v>414102</v>
+        <v>472476</v>
       </c>
       <c r="C45">
-        <v>8.02</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -994,13 +1039,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4219</v>
+        <v>4408</v>
       </c>
       <c r="B46">
-        <v>302507</v>
+        <v>414102</v>
       </c>
       <c r="C46">
-        <v>6.72</v>
+        <v>8.02</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1008,13 +1053,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4211</v>
+        <v>4219</v>
       </c>
       <c r="B47">
-        <v>382686</v>
+        <v>302507</v>
       </c>
       <c r="C47">
-        <v>7.23</v>
+        <v>6.72</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1022,41 +1067,41 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4993</v>
+        <v>4211</v>
       </c>
       <c r="B48">
-        <v>442782</v>
+        <v>382686</v>
       </c>
       <c r="C48">
-        <v>7.61</v>
+        <v>7.23</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4309</v>
+        <v>4993</v>
       </c>
       <c r="B49">
-        <v>322303</v>
+        <v>442782</v>
       </c>
       <c r="C49">
-        <v>7.39</v>
+        <v>7.61</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>4499</v>
+        <v>4309</v>
       </c>
       <c r="B50">
-        <v>290455</v>
+        <v>322303</v>
       </c>
       <c r="C50">
-        <v>7.99</v>
+        <v>7.39</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1064,13 +1109,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>4186</v>
+        <v>4499</v>
       </c>
       <c r="B51">
-        <v>411750</v>
+        <v>290455</v>
       </c>
       <c r="C51">
-        <v>7.83</v>
+        <v>7.99</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1078,15 +1123,29 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
+        <v>4186</v>
+      </c>
+      <c r="B52">
+        <v>411750</v>
+      </c>
+      <c r="C52">
+        <v>7.83</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>4342</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>292087</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>7.77</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>0</v>
       </c>
     </row>
